--- a/xlsx/肯亞_intext.xlsx
+++ b/xlsx/肯亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>斯瓦西里语</t>
   </si>
   <si>
-    <t>政策_政策_美國_肯亞</t>
+    <t>体育运动_体育运动_提高体育成绩药物的使用_肯亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
